--- a/Python/lambor_Inputbox_HLHD.xlsx
+++ b/Python/lambor_Inputbox_HLHD.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
